--- a/data/babi/babi_adversary.xlsx
+++ b/data/babi/babi_adversary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pengjia.zhu/work/accenture/iassistant/chatbot-end2end/data/babi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F38E41E3-BDF6-AE41-9FDC-574818E3820D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9BD0053-6DAA-FB49-BA84-40D1B2422D37}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="460" windowWidth="28260" windowHeight="16660" xr2:uid="{E6ABACC9-C76B-B649-842A-77014CC7B505}"/>
+    <workbookView xWindow="8840" yWindow="1320" windowWidth="19040" windowHeight="15180" xr2:uid="{E6ABACC9-C76B-B649-842A-77014CC7B505}"/>
   </bookViews>
   <sheets>
     <sheet name="dialogs" sheetId="1" r:id="rId1"/>
@@ -55,22 +55,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>I'm on it. How many people would be in your party?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I'm on it. Any preference on a type of cuisine ?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I'm on it. Where should it be?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I'm on it. Which price range are looking for?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Great! let me do the reservation.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -120,6 +104,22 @@
   </si>
   <si>
     <t>getgreeting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>How many people would be in your party?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Any preference on a type of cuisine ?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Where should it be?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Which price range are looking for?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -127,6 +127,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="12"/>
@@ -166,8 +169,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -487,7 +493,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -508,10 +514,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -519,7 +525,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -530,7 +536,7 @@
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -538,10 +544,10 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -549,10 +555,10 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -560,10 +566,10 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -571,10 +577,10 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -582,10 +588,10 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -593,10 +599,10 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -604,21 +610,22 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
         <v>10</v>
       </c>
+      <c r="B11" s="1"/>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -629,7 +636,7 @@
         <v>5</v>
       </c>
       <c r="E12" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -640,7 +647,7 @@
         <v>4</v>
       </c>
       <c r="E13" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:5">
